--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_5_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_5_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>978829.1423943934</v>
+        <v>1020170.201799362</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7817379.804902516</v>
+        <v>7817379.80490252</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>357.796717306004</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>124.6706366346458</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>114.8791903675466</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>305.9894042936361</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>1.465802816548228</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>41.751008370397</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,10 +1150,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>40.62363183383244</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>6.652676009751062</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>89.06613335611762</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>92.9575330029771</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -1432,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>208.7938001483152</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>3.62666189519208</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
@@ -1657,19 +1657,19 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>277.6533917267864</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>197.2982592812054</v>
       </c>
       <c r="U16" t="n">
-        <v>128.7835007017903</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>58.49852621786727</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>176.097474643207</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>169.0167291702126</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>269.2712215852829</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,10 +2098,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>319.3678335162778</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>155.886038567534</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>164.3465228785537</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>413.2106022137938</v>
       </c>
       <c r="H23" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>90.22929552159877</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>213.9375272825098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.2034701717912</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>81.75945942673123</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>223.9358063394608</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2557,22 +2557,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>230.3556264112219</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>201.348683612494</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>48.22561010945454</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>182.0541526740312</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2800,19 +2800,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.1009064372242</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>129.8188433654457</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,25 +2839,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>18.44902381826975</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U29" t="n">
         <v>251.1782820837292</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>178.0313787805695</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2952,19 +2952,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>53.557622442364</v>
+        <v>103.7162804660433</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>325.3111720384887</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>27.22799259745987</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>18.44902381826975</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>161.3455364069306</v>
@@ -3088,13 +3088,13 @@
         <v>251.1782820837292</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>114.1158076895349</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>142.3176446739021</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3268,13 +3268,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>311.6365283546648</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3283,10 +3283,10 @@
         <v>413.2106022137938</v>
       </c>
       <c r="H35" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>129.8188433654457</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>18.44902381826975</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>180.8585516514386</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H38" t="n">
-        <v>101.9316725591588</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>161.3455364069306</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>54.39051900143351</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>135.0968229573668</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>82.82399836788281</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>147.9239553616511</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3787,25 +3787,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>18.44902381826975</v>
       </c>
       <c r="S41" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>189.2974035512761</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>201.3486836124944</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>25.2015221495138</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>223.9358063394608</v>
+        <v>53.557622442364</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,25 +3979,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>87.44503008317142</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>129.8188433654457</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>18.44902381826975</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>213.9375272825098</v>
+        <v>12.09892688236016</v>
       </c>
       <c r="U44" t="n">
         <v>251.1782820837292</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1553.852279424831</v>
+        <v>1159.407758586979</v>
       </c>
       <c r="C2" t="n">
-        <v>1184.889762484419</v>
+        <v>1159.407758586979</v>
       </c>
       <c r="D2" t="n">
-        <v>1184.889762484419</v>
+        <v>801.1420599802289</v>
       </c>
       <c r="E2" t="n">
-        <v>799.1015098861748</v>
+        <v>415.3538073819846</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>415.3538073819846</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T2" t="n">
-        <v>2571.219155023631</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U2" t="n">
-        <v>2317.457369661722</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V2" t="n">
-        <v>2317.457369661722</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="W2" t="n">
-        <v>2317.457369661722</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="X2" t="n">
-        <v>1943.991611400642</v>
+        <v>1936.146930626913</v>
       </c>
       <c r="Y2" t="n">
-        <v>1553.852279424831</v>
+        <v>1546.007598651101</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1865.381229508782</v>
+        <v>1380.123535465744</v>
       </c>
       <c r="C5" t="n">
-        <v>1865.381229508782</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1011.161018525332</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>2156.862707505677</v>
       </c>
       <c r="Y5" t="n">
-        <v>2251.981069572904</v>
+        <v>1766.723375529866</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4670,25 +4670,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>685.9562484787605</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="C7" t="n">
-        <v>517.0200655508536</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="D7" t="n">
-        <v>517.0200655508536</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="E7" t="n">
-        <v>517.0200655508536</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="F7" t="n">
-        <v>517.0200655508536</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>55.42359072596872</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4752,25 +4752,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>685.9562484787605</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>685.9562484787605</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>685.9562484787605</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>685.9562484787605</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W7" t="n">
-        <v>685.9562484787605</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="X7" t="n">
-        <v>685.9562484787605</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="Y7" t="n">
-        <v>685.9562484787605</v>
+        <v>224.4233909876363</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1309.714918859355</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="C8" t="n">
-        <v>1309.714918859355</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D8" t="n">
-        <v>1309.714918859355</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E8" t="n">
-        <v>923.9266662611108</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>512.9407614715033</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>94.97695336969014</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>94.97695336969014</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,10 +4828,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
         <v>2247.308246834948</v>
@@ -4840,16 +4840,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.483574129469</v>
+        <v>1986.826586715716</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859355</v>
+        <v>1986.826586715716</v>
       </c>
       <c r="X8" t="n">
-        <v>1309.714918859355</v>
+        <v>1986.826586715716</v>
       </c>
       <c r="Y8" t="n">
-        <v>1309.714918859355</v>
+        <v>1596.687254739904</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4910,16 +4910,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207637</v>
@@ -4928,7 +4928,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4992,22 +4992,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>308.6274700262513</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>833.8914035503838</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C11" t="n">
-        <v>464.928886609972</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D11" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E11" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
         <v>53.94298182036445</v>
@@ -5041,19 +5041,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J11" t="n">
-        <v>169.710838053314</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5071,22 +5071,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2548.22390356591</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U11" t="n">
-        <v>2294.462118204002</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V11" t="n">
-        <v>1963.399230860431</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W11" t="n">
-        <v>1610.630575590317</v>
+        <v>1627.758233382657</v>
       </c>
       <c r="X11" t="n">
-        <v>1610.630575590317</v>
+        <v>1627.758233382657</v>
       </c>
       <c r="Y11" t="n">
-        <v>1220.491243614505</v>
+        <v>1627.758233382657</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
         <v>221.4284102424006</v>
@@ -5141,22 +5141,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
         <v>1572.325111207638</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="F13" t="n">
         <v>53.94298182036445</v>
@@ -5205,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U13" t="n">
-        <v>598.0446400632119</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V13" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1584.923258067584</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C14" t="n">
-        <v>1215.960741127172</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D14" t="n">
-        <v>857.6950425204218</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E14" t="n">
-        <v>471.9067899221776</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F14" t="n">
         <v>471.9067899221776</v>
@@ -5278,19 +5278,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5305,25 +5305,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V14" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W14" t="n">
-        <v>2361.662430107517</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X14" t="n">
-        <v>2361.662430107517</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y14" t="n">
-        <v>1971.523098131706</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="15">
@@ -5333,67 +5333,67 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H16" t="n">
         <v>53.94298182036445</v>
@@ -5460,28 +5460,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064344</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="U16" t="n">
-        <v>598.0446400632119</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="V16" t="n">
-        <v>343.360151857325</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>380.6911546495019</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1167.455337753612</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C17" t="n">
-        <v>798.4928208132003</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D17" t="n">
-        <v>440.2271222064498</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E17" t="n">
-        <v>381.1377017843616</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F17" t="n">
-        <v>381.1377017843616</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
@@ -5533,34 +5533,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2224.752638628377</v>
+        <v>2464.244164535375</v>
       </c>
       <c r="V17" t="n">
-        <v>1893.689751284806</v>
+        <v>2133.181277191804</v>
       </c>
       <c r="W17" t="n">
-        <v>1540.921096014692</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="X17" t="n">
-        <v>1167.455337753612</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="Y17" t="n">
-        <v>1167.455337753612</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5700,16 +5700,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S19" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T19" t="n">
-        <v>513.8405610245972</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U19" t="n">
-        <v>224.6669506791651</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V19" t="n">
-        <v>224.6669506791651</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W19" t="n">
         <v>53.94298182036445</v>
@@ -5728,31 +5728,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1744.740694543503</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C20" t="n">
-        <v>1744.740694543503</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="D20" t="n">
-        <v>1744.740694543503</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E20" t="n">
-        <v>1358.952441945259</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>947.9665371556514</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>530.0027290538383</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733127</v>
@@ -5785,19 +5785,19 @@
         <v>2465.942913862886</v>
       </c>
       <c r="U20" t="n">
-        <v>2465.942913862886</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V20" t="n">
-        <v>2134.880026519315</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W20" t="n">
-        <v>2134.880026519315</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X20" t="n">
-        <v>2134.880026519315</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y20" t="n">
-        <v>1744.740694543503</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="21">
@@ -5940,10 +5940,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T22" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U22" t="n">
-        <v>343.360151857325</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V22" t="n">
         <v>343.360151857325</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1641.042731837973</v>
+        <v>1650.323417605177</v>
       </c>
       <c r="C23" t="n">
-        <v>1641.042731837973</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="D23" t="n">
-        <v>1282.777033231223</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="E23" t="n">
-        <v>896.9887806329784</v>
+        <v>895.572648066521</v>
       </c>
       <c r="F23" t="n">
-        <v>896.9887806329784</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="G23" t="n">
-        <v>479.6043339523786</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="H23" t="n">
-        <v>158.342999143383</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I23" t="n">
         <v>67.20229659631353</v>
@@ -6022,19 +6022,19 @@
         <v>3144.016317409101</v>
       </c>
       <c r="U23" t="n">
-        <v>3144.016317409101</v>
+        <v>2890.30088096089</v>
       </c>
       <c r="V23" t="n">
-        <v>3144.016317409101</v>
+        <v>2559.237993617319</v>
       </c>
       <c r="W23" t="n">
-        <v>2791.247662138986</v>
+        <v>2206.469338347204</v>
       </c>
       <c r="X23" t="n">
-        <v>2417.781903877907</v>
+        <v>2206.469338347204</v>
       </c>
       <c r="Y23" t="n">
-        <v>2027.642571902095</v>
+        <v>1816.330006371393</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>67.20229659631353</v>
       </c>
       <c r="K24" t="n">
-        <v>109.6888109643151</v>
+        <v>371.5093956067679</v>
       </c>
       <c r="L24" t="n">
-        <v>580.2716556992015</v>
+        <v>842.0922403416542</v>
       </c>
       <c r="M24" t="n">
-        <v>1181.398861186278</v>
+        <v>1443.219445828731</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.14312848023</v>
+        <v>1601.414762522565</v>
       </c>
       <c r="O24" t="n">
-        <v>2326.564838176616</v>
+        <v>2113.836472218951</v>
       </c>
       <c r="P24" t="n">
-        <v>2667.279412613341</v>
+        <v>2508.097002468829</v>
       </c>
       <c r="Q24" t="n">
         <v>2670.157851783212</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>149.7876091485673</v>
+        <v>279.5820841300492</v>
       </c>
       <c r="C25" t="n">
-        <v>149.7876091485673</v>
+        <v>235.9422152696541</v>
       </c>
       <c r="D25" t="n">
-        <v>149.7876091485673</v>
+        <v>235.9422152696541</v>
       </c>
       <c r="E25" t="n">
-        <v>149.7876091485673</v>
+        <v>235.9422152696541</v>
       </c>
       <c r="F25" t="n">
-        <v>149.7876091485673</v>
+        <v>235.9422152696541</v>
       </c>
       <c r="G25" t="n">
         <v>67.20229659631353</v>
@@ -6180,19 +6180,19 @@
         <v>728.3642141715967</v>
       </c>
       <c r="U25" t="n">
-        <v>439.2047791855279</v>
+        <v>728.3642141715967</v>
       </c>
       <c r="V25" t="n">
-        <v>439.2047791855279</v>
+        <v>728.3642141715967</v>
       </c>
       <c r="W25" t="n">
-        <v>149.7876091485673</v>
+        <v>728.3642141715967</v>
       </c>
       <c r="X25" t="n">
-        <v>149.7876091485673</v>
+        <v>500.3746632735794</v>
       </c>
       <c r="Y25" t="n">
-        <v>149.7876091485673</v>
+        <v>279.5820841300492</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2008.589116211927</v>
+        <v>1390.397685722093</v>
       </c>
       <c r="C26" t="n">
-        <v>1639.626599271516</v>
+        <v>1157.715234801667</v>
       </c>
       <c r="D26" t="n">
-        <v>1281.360900664765</v>
+        <v>799.4495361949167</v>
       </c>
       <c r="E26" t="n">
-        <v>895.572648066521</v>
+        <v>799.4495361949167</v>
       </c>
       <c r="F26" t="n">
-        <v>484.5867432769134</v>
+        <v>388.4636314053092</v>
       </c>
       <c r="G26" t="n">
-        <v>67.20229659631353</v>
+        <v>388.4636314053092</v>
       </c>
       <c r="H26" t="n">
         <v>67.20229659631353</v>
@@ -6226,16 +6226,16 @@
         <v>67.20229659631353</v>
       </c>
       <c r="J26" t="n">
-        <v>231.1641949821409</v>
+        <v>231.1641949821403</v>
       </c>
       <c r="K26" t="n">
-        <v>597.6453821726757</v>
+        <v>597.6453821726752</v>
       </c>
       <c r="L26" t="n">
         <v>1104.574328908086</v>
       </c>
       <c r="M26" t="n">
-        <v>1685.237002375318</v>
+        <v>1685.237002375317</v>
       </c>
       <c r="N26" t="n">
         <v>2260.663407417571</v>
@@ -6256,22 +6256,22 @@
         <v>3341.479452221464</v>
       </c>
       <c r="T26" t="n">
-        <v>3341.479452221464</v>
+        <v>3125.380939814889</v>
       </c>
       <c r="U26" t="n">
-        <v>3341.479452221464</v>
+        <v>2871.665503366678</v>
       </c>
       <c r="V26" t="n">
-        <v>3341.479452221464</v>
+        <v>2540.602616023107</v>
       </c>
       <c r="W26" t="n">
-        <v>2988.71079695135</v>
+        <v>2540.602616023107</v>
       </c>
       <c r="X26" t="n">
-        <v>2785.328288251861</v>
+        <v>2167.136857762027</v>
       </c>
       <c r="Y26" t="n">
-        <v>2395.188956276049</v>
+        <v>1776.997525786215</v>
       </c>
     </row>
     <row r="27">
@@ -6308,22 +6308,22 @@
         <v>67.20229659631353</v>
       </c>
       <c r="K27" t="n">
-        <v>109.6888109643151</v>
+        <v>371.5093956067679</v>
       </c>
       <c r="L27" t="n">
-        <v>580.2716556992015</v>
+        <v>842.0922403416542</v>
       </c>
       <c r="M27" t="n">
-        <v>1181.398861186278</v>
+        <v>1443.219445828731</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.14312848023</v>
+        <v>1601.414762522565</v>
       </c>
       <c r="O27" t="n">
-        <v>2326.564838176616</v>
+        <v>2065.042367504972</v>
       </c>
       <c r="P27" t="n">
-        <v>2667.279412613341</v>
+        <v>2459.30289775485</v>
       </c>
       <c r="Q27" t="n">
         <v>2670.157851783212</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>410.7180751609145</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="C28" t="n">
-        <v>362.005337676617</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="D28" t="n">
-        <v>362.005337676617</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="E28" t="n">
-        <v>214.0922440942239</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="F28" t="n">
         <v>67.20229659631353</v>
@@ -6411,25 +6411,25 @@
         <v>954.5619983528702</v>
       </c>
       <c r="S28" t="n">
-        <v>954.5619983528702</v>
+        <v>770.6689148437478</v>
       </c>
       <c r="T28" t="n">
-        <v>954.5619983528702</v>
+        <v>770.6689148437478</v>
       </c>
       <c r="U28" t="n">
-        <v>665.4025633668014</v>
+        <v>770.6689148437478</v>
       </c>
       <c r="V28" t="n">
-        <v>410.7180751609145</v>
+        <v>515.9844266378609</v>
       </c>
       <c r="W28" t="n">
-        <v>410.7180751609145</v>
+        <v>515.9844266378609</v>
       </c>
       <c r="X28" t="n">
-        <v>410.7180751609145</v>
+        <v>287.9948757398436</v>
       </c>
       <c r="Y28" t="n">
-        <v>410.7180751609145</v>
+        <v>67.20229659631353</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1253.727542858555</v>
+        <v>1770.756744085097</v>
       </c>
       <c r="C29" t="n">
-        <v>1253.727542858555</v>
+        <v>1770.756744085097</v>
       </c>
       <c r="D29" t="n">
-        <v>895.4618442518042</v>
+        <v>1412.491045478347</v>
       </c>
       <c r="E29" t="n">
-        <v>895.4618442518042</v>
+        <v>1026.702792880102</v>
       </c>
       <c r="F29" t="n">
-        <v>484.4759394621967</v>
+        <v>615.7168880904949</v>
       </c>
       <c r="G29" t="n">
-        <v>67.20229659631353</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="H29" t="n">
-        <v>67.20229659631353</v>
+        <v>198.3324414098951</v>
       </c>
       <c r="I29" t="n">
         <v>67.20229659631353</v>
       </c>
       <c r="J29" t="n">
-        <v>231.1641949821404</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K29" t="n">
         <v>597.6453821726752</v>
@@ -6472,7 +6472,7 @@
         <v>1104.574328908086</v>
       </c>
       <c r="M29" t="n">
-        <v>1685.237002375318</v>
+        <v>1685.237002375317</v>
       </c>
       <c r="N29" t="n">
         <v>2260.663407417571</v>
@@ -6487,28 +6487,28 @@
         <v>3360.114829815676</v>
       </c>
       <c r="R29" t="n">
-        <v>3341.479452221464</v>
+        <v>3360.114829815676</v>
       </c>
       <c r="S29" t="n">
-        <v>3341.479452221464</v>
+        <v>3197.139540515746</v>
       </c>
       <c r="T29" t="n">
-        <v>3341.479452221464</v>
+        <v>2981.041028109171</v>
       </c>
       <c r="U29" t="n">
-        <v>3087.764015773253</v>
+        <v>2727.32559166096</v>
       </c>
       <c r="V29" t="n">
-        <v>2756.701128429682</v>
+        <v>2727.32559166096</v>
       </c>
       <c r="W29" t="n">
-        <v>2403.932473159568</v>
+        <v>2547.495916125031</v>
       </c>
       <c r="X29" t="n">
-        <v>2030.466714898488</v>
+        <v>2547.495916125031</v>
       </c>
       <c r="Y29" t="n">
-        <v>1640.327382922676</v>
+        <v>2157.356584149219</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>67.20229659631353</v>
       </c>
       <c r="J30" t="n">
-        <v>171.1635003404555</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K30" t="n">
-        <v>475.4705993509099</v>
+        <v>109.6888109643151</v>
       </c>
       <c r="L30" t="n">
-        <v>946.0534440857962</v>
+        <v>580.2716556992015</v>
       </c>
       <c r="M30" t="n">
-        <v>1394.425341114752</v>
+        <v>1181.398861186278</v>
       </c>
       <c r="N30" t="n">
-        <v>1552.620657808586</v>
+        <v>1814.14312848023</v>
       </c>
       <c r="O30" t="n">
-        <v>2065.042367504972</v>
+        <v>2273.018882363463</v>
       </c>
       <c r="P30" t="n">
-        <v>2459.30289775485</v>
+        <v>2667.279412613341</v>
       </c>
       <c r="Q30" t="n">
         <v>2670.157851783212</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>67.20229659631353</v>
+        <v>849.7980786902002</v>
       </c>
       <c r="C31" t="n">
-        <v>67.20229659631353</v>
+        <v>680.8618957622933</v>
       </c>
       <c r="D31" t="n">
-        <v>67.20229659631353</v>
+        <v>530.7452563499576</v>
       </c>
       <c r="E31" t="n">
-        <v>67.20229659631353</v>
+        <v>382.8321627675645</v>
       </c>
       <c r="F31" t="n">
-        <v>67.20229659631353</v>
+        <v>235.9422152696541</v>
       </c>
       <c r="G31" t="n">
         <v>67.20229659631353</v>
@@ -6651,22 +6651,22 @@
         <v>954.5619983528702</v>
       </c>
       <c r="T31" t="n">
-        <v>900.4633898252298</v>
+        <v>849.7980786902002</v>
       </c>
       <c r="U31" t="n">
-        <v>611.3039548391611</v>
+        <v>849.7980786902002</v>
       </c>
       <c r="V31" t="n">
-        <v>356.6194666332742</v>
+        <v>849.7980786902002</v>
       </c>
       <c r="W31" t="n">
-        <v>67.20229659631353</v>
+        <v>849.7980786902002</v>
       </c>
       <c r="X31" t="n">
-        <v>67.20229659631353</v>
+        <v>849.7980786902002</v>
       </c>
       <c r="Y31" t="n">
-        <v>67.20229659631353</v>
+        <v>849.7980786902002</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>874.6537411520499</v>
+        <v>2008.589116211927</v>
       </c>
       <c r="C32" t="n">
-        <v>505.6912242116381</v>
+        <v>1639.626599271516</v>
       </c>
       <c r="D32" t="n">
-        <v>478.1882013859211</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="E32" t="n">
-        <v>478.1882013859211</v>
+        <v>895.572648066521</v>
       </c>
       <c r="F32" t="n">
-        <v>67.20229659631353</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="G32" t="n">
         <v>67.20229659631353</v>
@@ -6700,10 +6700,10 @@
         <v>67.20229659631353</v>
       </c>
       <c r="J32" t="n">
-        <v>231.164194982141</v>
+        <v>231.1641949821414</v>
       </c>
       <c r="K32" t="n">
-        <v>597.6453821726759</v>
+        <v>597.6453821726761</v>
       </c>
       <c r="L32" t="n">
         <v>1104.574328908086</v>
@@ -6724,28 +6724,28 @@
         <v>3360.114829815677</v>
       </c>
       <c r="R32" t="n">
-        <v>3341.479452221465</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="S32" t="n">
-        <v>3178.504162921535</v>
+        <v>3197.139540515747</v>
       </c>
       <c r="T32" t="n">
-        <v>2962.405650514959</v>
+        <v>2981.041028109171</v>
       </c>
       <c r="U32" t="n">
-        <v>2708.690214066748</v>
+        <v>2727.32559166096</v>
       </c>
       <c r="V32" t="n">
-        <v>2377.627326723177</v>
+        <v>2727.32559166096</v>
       </c>
       <c r="W32" t="n">
-        <v>2024.858671453063</v>
+        <v>2727.32559166096</v>
       </c>
       <c r="X32" t="n">
-        <v>1651.392913191983</v>
+        <v>2727.32559166096</v>
       </c>
       <c r="Y32" t="n">
-        <v>1261.253581216172</v>
+        <v>2337.186259685148</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>67.20229659631353</v>
       </c>
       <c r="J33" t="n">
-        <v>171.1635003404555</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K33" t="n">
-        <v>475.4705993509099</v>
+        <v>109.6888109643151</v>
       </c>
       <c r="L33" t="n">
-        <v>946.0534440857962</v>
+        <v>580.2716556992015</v>
       </c>
       <c r="M33" t="n">
-        <v>1547.180649572873</v>
+        <v>1181.398861186278</v>
       </c>
       <c r="N33" t="n">
-        <v>1705.375966266706</v>
+        <v>1814.14312848023</v>
       </c>
       <c r="O33" t="n">
-        <v>2065.042367504972</v>
+        <v>2273.018882363463</v>
       </c>
       <c r="P33" t="n">
-        <v>2459.30289775485</v>
+        <v>2667.279412613341</v>
       </c>
       <c r="Q33" t="n">
         <v>2670.157851783212</v>
@@ -6888,10 +6888,10 @@
         <v>954.5619983528702</v>
       </c>
       <c r="T34" t="n">
-        <v>839.2935057371784</v>
+        <v>728.3642141715967</v>
       </c>
       <c r="U34" t="n">
-        <v>839.2935057371784</v>
+        <v>584.6090175312916</v>
       </c>
       <c r="V34" t="n">
         <v>584.6090175312916</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1662.748499764517</v>
+        <v>2008.589116211927</v>
       </c>
       <c r="C35" t="n">
-        <v>1662.748499764517</v>
+        <v>1639.626599271516</v>
       </c>
       <c r="D35" t="n">
-        <v>1347.964127689098</v>
+        <v>1281.360900664765</v>
       </c>
       <c r="E35" t="n">
-        <v>1347.964127689098</v>
+        <v>895.572648066521</v>
       </c>
       <c r="F35" t="n">
-        <v>936.9782228994906</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="G35" t="n">
-        <v>519.5937762188908</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="H35" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I35" t="n">
         <v>67.20229659631353</v>
@@ -6940,7 +6940,7 @@
         <v>231.164194982141</v>
       </c>
       <c r="K35" t="n">
-        <v>597.6453821726761</v>
+        <v>597.6453821726759</v>
       </c>
       <c r="L35" t="n">
         <v>1104.574328908086</v>
@@ -6961,28 +6961,28 @@
         <v>3360.114829815677</v>
       </c>
       <c r="R35" t="n">
-        <v>3360.114829815677</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="S35" t="n">
-        <v>3360.114829815677</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="T35" t="n">
-        <v>3144.016317409101</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="U35" t="n">
-        <v>3144.016317409101</v>
+        <v>3158.794046512941</v>
       </c>
       <c r="V35" t="n">
-        <v>2812.95343006553</v>
+        <v>3158.794046512941</v>
       </c>
       <c r="W35" t="n">
-        <v>2812.95343006553</v>
+        <v>3158.794046512941</v>
       </c>
       <c r="X35" t="n">
-        <v>2439.487671804451</v>
+        <v>2785.328288251861</v>
       </c>
       <c r="Y35" t="n">
-        <v>2049.348339828639</v>
+        <v>2395.188956276049</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>67.20229659631353</v>
       </c>
       <c r="J36" t="n">
-        <v>171.1635003404555</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K36" t="n">
-        <v>475.4705993509099</v>
+        <v>109.6888109643151</v>
       </c>
       <c r="L36" t="n">
-        <v>946.0534440857962</v>
+        <v>526.7256998860481</v>
       </c>
       <c r="M36" t="n">
-        <v>1394.425341114752</v>
+        <v>1127.852905373125</v>
       </c>
       <c r="N36" t="n">
-        <v>1552.620657808586</v>
+        <v>1760.597172667076</v>
       </c>
       <c r="O36" t="n">
-        <v>2065.042367504972</v>
+        <v>2273.018882363463</v>
       </c>
       <c r="P36" t="n">
-        <v>2459.30289775485</v>
+        <v>2667.279412613341</v>
       </c>
       <c r="Q36" t="n">
         <v>2670.157851783212</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1694.165954944619</v>
+        <v>1211.814958824076</v>
       </c>
       <c r="C38" t="n">
-        <v>1325.203438004208</v>
+        <v>842.8524418836639</v>
       </c>
       <c r="D38" t="n">
-        <v>966.9377393974571</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="E38" t="n">
-        <v>581.1494867992128</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="F38" t="n">
-        <v>170.1635820096052</v>
+        <v>484.5867432769134</v>
       </c>
       <c r="G38" t="n">
-        <v>170.1635820096052</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="H38" t="n">
         <v>67.20229659631353</v>
@@ -7174,7 +7174,7 @@
         <v>67.20229659631353</v>
       </c>
       <c r="J38" t="n">
-        <v>231.164194982141</v>
+        <v>231.1641949821414</v>
       </c>
       <c r="K38" t="n">
         <v>597.6453821726761</v>
@@ -7204,22 +7204,22 @@
         <v>3197.139540515747</v>
       </c>
       <c r="T38" t="n">
-        <v>3197.139540515747</v>
+        <v>2981.041028109171</v>
       </c>
       <c r="U38" t="n">
-        <v>3197.139540515747</v>
+        <v>2727.32559166096</v>
       </c>
       <c r="V38" t="n">
-        <v>3197.139540515747</v>
+        <v>2396.262704317389</v>
       </c>
       <c r="W38" t="n">
-        <v>2844.370885245633</v>
+        <v>2043.494049047275</v>
       </c>
       <c r="X38" t="n">
-        <v>2470.905126984553</v>
+        <v>1988.554130864009</v>
       </c>
       <c r="Y38" t="n">
-        <v>2080.765795008741</v>
+        <v>1598.414798888197</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>67.20229659631353</v>
       </c>
       <c r="J39" t="n">
-        <v>171.1635003404555</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K39" t="n">
-        <v>475.4705993509099</v>
+        <v>109.6888109643151</v>
       </c>
       <c r="L39" t="n">
-        <v>946.0534440857962</v>
+        <v>526.7256998860481</v>
       </c>
       <c r="M39" t="n">
-        <v>1394.425341114752</v>
+        <v>1127.852905373125</v>
       </c>
       <c r="N39" t="n">
-        <v>1552.620657808586</v>
+        <v>1760.597172667076</v>
       </c>
       <c r="O39" t="n">
-        <v>2065.042367504972</v>
+        <v>2273.018882363463</v>
       </c>
       <c r="P39" t="n">
-        <v>2459.30289775485</v>
+        <v>2667.279412613341</v>
       </c>
       <c r="Q39" t="n">
         <v>2670.157851783212</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>552.7914917799541</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="C40" t="n">
-        <v>383.8553088520472</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="D40" t="n">
-        <v>383.8553088520472</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="E40" t="n">
-        <v>235.9422152696541</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="F40" t="n">
-        <v>235.9422152696541</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="G40" t="n">
         <v>67.20229659631353</v>
@@ -7356,28 +7356,28 @@
         <v>954.5619983528702</v>
       </c>
       <c r="R40" t="n">
-        <v>818.1005610221966</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="S40" t="n">
-        <v>818.1005610221966</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="T40" t="n">
-        <v>734.4399566101938</v>
+        <v>954.5619983528702</v>
       </c>
       <c r="U40" t="n">
-        <v>734.4399566101938</v>
+        <v>665.4025633668014</v>
       </c>
       <c r="V40" t="n">
-        <v>734.4399566101938</v>
+        <v>515.9844266378609</v>
       </c>
       <c r="W40" t="n">
-        <v>734.4399566101938</v>
+        <v>515.9844266378609</v>
       </c>
       <c r="X40" t="n">
-        <v>734.4399566101938</v>
+        <v>287.9948757398436</v>
       </c>
       <c r="Y40" t="n">
-        <v>734.4399566101938</v>
+        <v>67.20229659631353</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1639.626599271516</v>
+        <v>2008.589116211927</v>
       </c>
       <c r="C41" t="n">
         <v>1639.626599271516</v>
@@ -7411,10 +7411,10 @@
         <v>67.20229659631353</v>
       </c>
       <c r="J41" t="n">
-        <v>231.1641949821414</v>
+        <v>231.164194982141</v>
       </c>
       <c r="K41" t="n">
-        <v>597.6453821726761</v>
+        <v>597.6453821726759</v>
       </c>
       <c r="L41" t="n">
         <v>1104.574328908086</v>
@@ -7435,28 +7435,28 @@
         <v>3360.114829815677</v>
       </c>
       <c r="R41" t="n">
-        <v>3360.114829815677</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="S41" t="n">
-        <v>3197.139540515747</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="T41" t="n">
-        <v>2981.041028109171</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="U41" t="n">
-        <v>2789.831529572529</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="V41" t="n">
-        <v>2789.831529572529</v>
+        <v>3341.479452221465</v>
       </c>
       <c r="W41" t="n">
-        <v>2789.831529572529</v>
+        <v>2988.71079695135</v>
       </c>
       <c r="X41" t="n">
-        <v>2416.365771311449</v>
+        <v>2785.328288251861</v>
       </c>
       <c r="Y41" t="n">
-        <v>2026.226439335637</v>
+        <v>2395.188956276049</v>
       </c>
     </row>
     <row r="42">
@@ -7490,19 +7490,19 @@
         <v>67.20229659631353</v>
       </c>
       <c r="J42" t="n">
-        <v>171.1635003404555</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K42" t="n">
-        <v>475.4705993509099</v>
+        <v>371.5093956067679</v>
       </c>
       <c r="L42" t="n">
-        <v>946.0534440857962</v>
+        <v>842.0922403416542</v>
       </c>
       <c r="M42" t="n">
-        <v>1394.425341114752</v>
+        <v>1309.800086598596</v>
       </c>
       <c r="N42" t="n">
-        <v>1552.620657808586</v>
+        <v>1942.544353892548</v>
       </c>
       <c r="O42" t="n">
         <v>2065.042367504972</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>702.9081311922898</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="C43" t="n">
-        <v>533.9719482643829</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="D43" t="n">
-        <v>383.8553088520472</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="E43" t="n">
-        <v>235.9422152696541</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="F43" t="n">
-        <v>235.9422152696541</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="G43" t="n">
         <v>67.20229659631353</v>
@@ -7599,22 +7599,22 @@
         <v>954.5619983528702</v>
       </c>
       <c r="T43" t="n">
-        <v>728.3642141715967</v>
+        <v>900.4633898252298</v>
       </c>
       <c r="U43" t="n">
-        <v>728.3642141715967</v>
+        <v>611.3039548391611</v>
       </c>
       <c r="V43" t="n">
-        <v>728.3642141715967</v>
+        <v>356.6194666332742</v>
       </c>
       <c r="W43" t="n">
-        <v>728.3642141715967</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="X43" t="n">
-        <v>728.3642141715967</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.3642141715967</v>
+        <v>67.20229659631353</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1411.094788713059</v>
+        <v>1591.204669531327</v>
       </c>
       <c r="C44" t="n">
-        <v>1411.094788713059</v>
+        <v>1222.242152590916</v>
       </c>
       <c r="D44" t="n">
-        <v>1322.766475497735</v>
+        <v>863.9764539841653</v>
       </c>
       <c r="E44" t="n">
-        <v>936.9782228994906</v>
+        <v>478.1882013859211</v>
       </c>
       <c r="F44" t="n">
-        <v>936.9782228994906</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="G44" t="n">
-        <v>519.5937762188908</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="H44" t="n">
-        <v>198.3324414098951</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="I44" t="n">
         <v>67.20229659631353</v>
       </c>
       <c r="J44" t="n">
-        <v>231.164194982141</v>
+        <v>231.1641949821405</v>
       </c>
       <c r="K44" t="n">
         <v>597.6453821726761</v>
@@ -7672,28 +7672,28 @@
         <v>3360.114829815677</v>
       </c>
       <c r="R44" t="n">
-        <v>3341.479452221465</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="S44" t="n">
-        <v>3341.479452221465</v>
+        <v>3360.114829815677</v>
       </c>
       <c r="T44" t="n">
-        <v>3125.380939814889</v>
+        <v>3347.893691550667</v>
       </c>
       <c r="U44" t="n">
-        <v>2871.665503366678</v>
+        <v>3094.178255102455</v>
       </c>
       <c r="V44" t="n">
-        <v>2540.602616023107</v>
+        <v>3094.178255102455</v>
       </c>
       <c r="W44" t="n">
-        <v>2187.833960752993</v>
+        <v>2741.409599832341</v>
       </c>
       <c r="X44" t="n">
-        <v>2187.833960752993</v>
+        <v>2367.943841571261</v>
       </c>
       <c r="Y44" t="n">
-        <v>1797.694628777181</v>
+        <v>1977.804509595449</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>67.20229659631353</v>
       </c>
       <c r="J45" t="n">
-        <v>171.1635003404555</v>
+        <v>67.20229659631353</v>
       </c>
       <c r="K45" t="n">
-        <v>475.4705993509099</v>
+        <v>109.6888109643151</v>
       </c>
       <c r="L45" t="n">
-        <v>946.0534440857962</v>
+        <v>526.7256998860481</v>
       </c>
       <c r="M45" t="n">
-        <v>1086.132636460373</v>
+        <v>1127.852905373125</v>
       </c>
       <c r="N45" t="n">
-        <v>1552.620657808586</v>
+        <v>1760.597172667076</v>
       </c>
       <c r="O45" t="n">
-        <v>2065.042367504972</v>
+        <v>2273.018882363463</v>
       </c>
       <c r="P45" t="n">
-        <v>2459.30289775485</v>
+        <v>2667.279412613341</v>
       </c>
       <c r="Q45" t="n">
         <v>2670.157851783212</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>275.044284299266</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9184,7 +9184,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>21.07971842713413</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,16 +9728,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>264.3759445862468</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>160.7903132772845</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720742</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9956,7 +9956,7 @@
         <v>21.07971842713413</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,16 +9965,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>344.5753448181651</v>
       </c>
       <c r="P27" t="n">
-        <v>264.3759445862468</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10129,7 +10129,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10190,28 +10190,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>21.07971842713413</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>311.4067723781607</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>339.7754952230393</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720747</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>21.07971842713413</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,16 +10439,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>239.5640279048905</v>
+        <v>339.7754952230393</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,19 +10664,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>21.07971842713413</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>316.7535212497689</v>
       </c>
       <c r="M36" t="n">
-        <v>311.4067723781607</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720747</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>21.07971842713413</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>316.7535212497689</v>
       </c>
       <c r="M39" t="n">
-        <v>311.4067723781607</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720747</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>21.07971842713413</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,13 +11147,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>311.4067723781607</v>
+        <v>330.9380342246113</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711657</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11375,19 +11375,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>21.07971842713413</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>316.7535212497689</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>311.4067723781607</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,13 +22546,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22561,10 +22561,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>55.987452714791</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>91.77768372301203</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22722,13 +22722,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>27.38738814000504</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,10 +22749,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -22761,7 +22761,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22786,22 +22786,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>239.8038512531363</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -22849,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>63.74169638483289</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22944,7 +22944,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22959,13 +22959,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>154.7050860252469</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,13 +22986,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>170.3945305796219</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -23004,7 +23004,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,7 +23029,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>111.3076844110288</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23080,16 +23080,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>321.0995824603838</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23184,13 +23184,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>59.54933966209474</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -23232,16 +23232,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,10 +23260,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
@@ -23311,7 +23311,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>123.4907873546807</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>140.4471685690978</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>50.7817782392907</v>
       </c>
       <c r="G13" t="n">
         <v>167.3098022590509</v>
@@ -23439,7 +23439,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
         <v>212.1455389500189</v>
@@ -23472,10 +23472,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>379.1071797682885</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>71.58757699062659</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>134.9656217923382</v>
@@ -23700,22 +23700,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>27.73684617687886</v>
       </c>
       <c r="U16" t="n">
-        <v>157.4983735401874</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>323.4318438543945</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>75.1266928650823</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23940,19 +23940,19 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>96.01048066168073</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>117.5062691663784</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>96.00167018572461</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>4.554939248079336</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,19 +24025,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24180,13 +24180,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3958356744437</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>218.3873187849269</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I23" t="n">
-        <v>39.58954784384696</v>
+        <v>129.8188433654457</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,16 +24262,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>124.0433509268366</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>85.29306005987588</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>153.8834111013403</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24445,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>134.9172653597857</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H26" t="n">
-        <v>318.0487214609057</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>129.8188433654457</v>
@@ -24496,19 +24496,19 @@
         <v>161.3455364069306</v>
       </c>
       <c r="T26" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>168.3824170659751</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>119.0212109891733</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.0525194866071</v>
@@ -24651,13 +24651,13 @@
         <v>135.0968229573668</v>
       </c>
       <c r="S28" t="n">
-        <v>207.661801906612</v>
+        <v>25.60764923258083</v>
       </c>
       <c r="T28" t="n">
         <v>223.9358063394608</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24688,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1096957765695379</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>318.0487214609057</v>
       </c>
       <c r="I29" t="n">
-        <v>129.8188433654457</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,25 +24727,25 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>18.44902381826975</v>
       </c>
       <c r="S29" t="n">
-        <v>161.3455364069306</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>171.2095899368435</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24840,19 +24840,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.0525194866071</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>153.8834111013403</v>
@@ -24891,16 +24891,16 @@
         <v>207.661801906612</v>
       </c>
       <c r="T31" t="n">
-        <v>170.3781838970968</v>
+        <v>120.2195258734175</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2678406362081</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>57.42266962499184</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>327.4550490232231</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>318.0487214609057</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>18.44902381826975</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -24976,13 +24976,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25128,13 +25128,13 @@
         <v>207.661801906612</v>
       </c>
       <c r="T34" t="n">
-        <v>109.8199986499259</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2678406362081</v>
+        <v>143.950195962306</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25156,13 +25156,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>43.04651326601817</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>129.8188433654457</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>18.44902381826975</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>161.3455364069306</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U35" t="n">
-        <v>251.1782820837292</v>
+        <v>70.31973043229061</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25399,16 +25399,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.2106022137938</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>216.1170489017468</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I38" t="n">
         <v>129.8188433654457</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>213.9375272825098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.1782820837292</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>315.3405816770355</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H40" t="n">
         <v>153.8834111013403</v>
@@ -25596,28 +25596,28 @@
         <v>7.578826164188797</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>135.0968229573668</v>
       </c>
       <c r="S40" t="n">
         <v>207.661801906612</v>
       </c>
       <c r="T40" t="n">
-        <v>141.111807971578</v>
+        <v>223.9358063394608</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>104.2136879621769</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>18.44902381826975</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>161.3455364069306</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>213.9375272825098</v>
       </c>
       <c r="U41" t="n">
-        <v>61.88087853245312</v>
+        <v>251.1782820837292</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>168.3824170659746</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>154.6304580324235</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.0525194866071</v>
       </c>
       <c r="H43" t="n">
         <v>153.8834111013403</v>
@@ -25839,16 +25839,16 @@
         <v>207.661801906612</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>170.3781838970968</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2678406362081</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>267.2380115375115</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.2106022137938</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>318.0487214609057</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>129.8188433654457</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>18.44902381826975</v>
       </c>
       <c r="S44" t="n">
         <v>161.3455364069306</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>201.8386004001497</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>752713.4422151153</v>
+        <v>752713.4422151152</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>752713.4422151154</v>
+        <v>752713.4422151153</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>752713.4422151152</v>
+        <v>752713.4422151153</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>752713.4422151153</v>
+        <v>752713.4422151152</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>752713.4422151154</v>
+        <v>752713.4422151153</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>828709.1563802058</v>
+        <v>828709.156380206</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>828709.1563802058</v>
+        <v>828709.1563802061</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>828709.1563802059</v>
+        <v>828709.156380206</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>828709.1563802059</v>
+        <v>828709.1563802061</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>828709.1563802059</v>
+        <v>828709.1563802058</v>
       </c>
     </row>
     <row r="16">
@@ -26316,43 +26316,43 @@
         <v>303610.2405165454</v>
       </c>
       <c r="C2" t="n">
+        <v>303610.2405165454</v>
+      </c>
+      <c r="D2" t="n">
         <v>303610.2405165455</v>
-      </c>
-      <c r="D2" t="n">
-        <v>303610.2405165454</v>
       </c>
       <c r="E2" t="n">
         <v>303610.2405165454</v>
       </c>
       <c r="F2" t="n">
+        <v>303610.2405165455</v>
+      </c>
+      <c r="G2" t="n">
         <v>303610.2405165454</v>
       </c>
-      <c r="G2" t="n">
-        <v>303610.2405165456</v>
-      </c>
       <c r="H2" t="n">
-        <v>303610.2405165456</v>
+        <v>303610.2405165455</v>
       </c>
       <c r="I2" t="n">
         <v>337347.8118794857</v>
       </c>
       <c r="J2" t="n">
+        <v>337347.8118794857</v>
+      </c>
+      <c r="K2" t="n">
         <v>337347.8118794858</v>
       </c>
-      <c r="K2" t="n">
-        <v>337347.8118794859</v>
-      </c>
       <c r="L2" t="n">
-        <v>337347.8118794859</v>
+        <v>337347.8118794857</v>
       </c>
       <c r="M2" t="n">
         <v>337347.8118794857</v>
       </c>
       <c r="N2" t="n">
-        <v>337347.811879486</v>
+        <v>337347.8118794858</v>
       </c>
       <c r="O2" t="n">
-        <v>337347.8118794859</v>
+        <v>337347.8118794858</v>
       </c>
       <c r="P2" t="n">
         <v>337347.8118794858</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>151472.585603344</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26423,10 +26423,10 @@
         <v>44802.65617556861</v>
       </c>
       <c r="D4" t="n">
+        <v>44802.65617556861</v>
+      </c>
+      <c r="E4" t="n">
         <v>44802.6561755686</v>
-      </c>
-      <c r="E4" t="n">
-        <v>44802.65617556861</v>
       </c>
       <c r="F4" t="n">
         <v>44802.6561755686</v>
@@ -26456,10 +26456,10 @@
         <v>42160.89500386955</v>
       </c>
       <c r="O4" t="n">
+        <v>42160.89500386954</v>
+      </c>
+      <c r="P4" t="n">
         <v>42160.89500386955</v>
-      </c>
-      <c r="P4" t="n">
-        <v>42160.89500386954</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-420087.7866827964</v>
+        <v>-414626.2143115589</v>
       </c>
       <c r="C6" t="n">
-        <v>169880.0925317483</v>
+        <v>175341.6649029854</v>
       </c>
       <c r="D6" t="n">
-        <v>169880.0925317481</v>
+        <v>175341.6649029856</v>
       </c>
       <c r="E6" t="n">
-        <v>203507.6925317481</v>
+        <v>208969.2649029854</v>
       </c>
       <c r="F6" t="n">
-        <v>203507.6925317482</v>
+        <v>208969.2649029855</v>
       </c>
       <c r="G6" t="n">
-        <v>203507.6925317483</v>
+        <v>208969.2649029854</v>
       </c>
       <c r="H6" t="n">
-        <v>203507.6925317483</v>
+        <v>208969.2649029855</v>
       </c>
       <c r="I6" t="n">
-        <v>76833.59642518905</v>
+        <v>80849.27288087181</v>
       </c>
       <c r="J6" t="n">
-        <v>51882.96283594018</v>
+        <v>55898.63929162285</v>
       </c>
       <c r="K6" t="n">
-        <v>228306.1820285333</v>
+        <v>232321.8584842159</v>
       </c>
       <c r="L6" t="n">
-        <v>228306.1820285333</v>
+        <v>232321.8584842158</v>
       </c>
       <c r="M6" t="n">
-        <v>228306.1820285331</v>
+        <v>232321.8584842157</v>
       </c>
       <c r="N6" t="n">
-        <v>228306.1820285333</v>
+        <v>232321.8584842159</v>
       </c>
       <c r="O6" t="n">
-        <v>228306.1820285333</v>
+        <v>232321.8584842158</v>
       </c>
       <c r="P6" t="n">
-        <v>228306.1820285332</v>
+        <v>232321.8584842158</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,7 +26746,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
         <v>377.7436642170867</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>165.7414346993635</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,22 +31223,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31758,19 +31758,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
@@ -31785,13 +31785,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31858,22 +31858,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
         <v>79.14039391302239</v>
@@ -31934,16 +31934,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181308</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
         <v>406.5635087530452</v>
@@ -35500,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O12" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K14" t="n">
         <v>297.223041434342</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35746,7 +35746,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K18" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>42.91567107878944</v>
+        <v>307.380908091368</v>
       </c>
       <c r="L24" t="n">
         <v>475.3362068029155</v>
@@ -36448,16 +36448,16 @@
         <v>607.1991974616938</v>
       </c>
       <c r="N24" t="n">
-        <v>639.135623529244</v>
+        <v>159.7932491856905</v>
       </c>
       <c r="O24" t="n">
         <v>517.5976865620062</v>
       </c>
       <c r="P24" t="n">
-        <v>344.1561357946716</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.907514313001542</v>
+        <v>163.697827590286</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>165.6180791776034</v>
+        <v>165.618079177603</v>
       </c>
       <c r="K26" t="n">
         <v>370.1830173641765</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>42.91567107878944</v>
+        <v>307.380908091368</v>
       </c>
       <c r="L27" t="n">
         <v>475.3362068029155</v>
@@ -36685,16 +36685,16 @@
         <v>607.1991974616938</v>
       </c>
       <c r="N27" t="n">
-        <v>639.135623529244</v>
+        <v>159.7932491856905</v>
       </c>
       <c r="O27" t="n">
-        <v>517.5976865620062</v>
+        <v>468.3107121034417</v>
       </c>
       <c r="P27" t="n">
-        <v>344.1561357946716</v>
+        <v>398.242959848362</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.907514313001542</v>
+        <v>212.9848020488506</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36849,7 +36849,7 @@
         <v>503.2032315949263</v>
       </c>
       <c r="P29" t="n">
-        <v>391.4173839182175</v>
+        <v>391.417383918218</v>
       </c>
       <c r="Q29" t="n">
         <v>215.9363768081746</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>105.0113169132747</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>307.380908091368</v>
+        <v>42.91567107878944</v>
       </c>
       <c r="L30" t="n">
         <v>475.3362068029155</v>
       </c>
       <c r="M30" t="n">
-        <v>452.9009060898546</v>
+        <v>607.1991974616938</v>
       </c>
       <c r="N30" t="n">
-        <v>159.7932491856905</v>
+        <v>639.135623529244</v>
       </c>
       <c r="O30" t="n">
-        <v>517.5976865620062</v>
+        <v>463.510862508316</v>
       </c>
       <c r="P30" t="n">
         <v>398.242959848362</v>
       </c>
       <c r="Q30" t="n">
-        <v>212.9848020488506</v>
+        <v>2.907514313001542</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>165.618079177603</v>
+        <v>165.6180791776039</v>
       </c>
       <c r="K32" t="n">
         <v>370.1830173641765</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>105.0113169132747</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>307.380908091368</v>
+        <v>42.91567107878944</v>
       </c>
       <c r="L33" t="n">
         <v>475.3362068029155</v>
@@ -37159,16 +37159,16 @@
         <v>607.1991974616938</v>
       </c>
       <c r="N33" t="n">
-        <v>159.7932491856905</v>
+        <v>639.135623529244</v>
       </c>
       <c r="O33" t="n">
-        <v>363.2993951901672</v>
+        <v>463.510862508316</v>
       </c>
       <c r="P33" t="n">
         <v>398.242959848362</v>
       </c>
       <c r="Q33" t="n">
-        <v>212.9848020488506</v>
+        <v>2.907514313001542</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>105.0113169132747</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>307.380908091368</v>
+        <v>42.91567107878944</v>
       </c>
       <c r="L36" t="n">
-        <v>475.3362068029155</v>
+        <v>421.2493827492253</v>
       </c>
       <c r="M36" t="n">
-        <v>452.9009060898546</v>
+        <v>607.1991974616938</v>
       </c>
       <c r="N36" t="n">
-        <v>159.7932491856905</v>
+        <v>639.135623529244</v>
       </c>
       <c r="O36" t="n">
         <v>517.5976865620062</v>
@@ -37405,7 +37405,7 @@
         <v>398.242959848362</v>
       </c>
       <c r="Q36" t="n">
-        <v>212.9848020488506</v>
+        <v>2.907514313001542</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>165.618079177603</v>
+        <v>165.6180791776039</v>
       </c>
       <c r="K38" t="n">
         <v>370.1830173641765</v>
@@ -37621,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>105.0113169132747</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>307.380908091368</v>
+        <v>42.91567107878944</v>
       </c>
       <c r="L39" t="n">
-        <v>475.3362068029155</v>
+        <v>421.2493827492253</v>
       </c>
       <c r="M39" t="n">
-        <v>452.9009060898546</v>
+        <v>607.1991974616938</v>
       </c>
       <c r="N39" t="n">
-        <v>159.7932491856905</v>
+        <v>639.135623529244</v>
       </c>
       <c r="O39" t="n">
         <v>517.5976865620062</v>
@@ -37642,7 +37642,7 @@
         <v>398.242959848362</v>
       </c>
       <c r="Q39" t="n">
-        <v>212.9848020488506</v>
+        <v>2.907514313001542</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>165.6180791776039</v>
+        <v>165.618079177603</v>
       </c>
       <c r="K41" t="n">
         <v>370.1830173641765</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>105.0113169132747</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>307.380908091368</v>
@@ -37867,13 +37867,13 @@
         <v>475.3362068029155</v>
       </c>
       <c r="M42" t="n">
-        <v>452.9009060898546</v>
+        <v>472.4321679363052</v>
       </c>
       <c r="N42" t="n">
-        <v>159.7932491856905</v>
+        <v>639.135623529244</v>
       </c>
       <c r="O42" t="n">
-        <v>517.5976865620062</v>
+        <v>123.7353672852767</v>
       </c>
       <c r="P42" t="n">
         <v>398.242959848362</v>
@@ -38019,7 +38019,7 @@
         <v>165.618079177603</v>
       </c>
       <c r="K44" t="n">
-        <v>370.1830173641765</v>
+        <v>370.1830173641774</v>
       </c>
       <c r="L44" t="n">
         <v>512.0494411468792</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>105.0113169132747</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>307.380908091368</v>
+        <v>42.91567107878944</v>
       </c>
       <c r="L45" t="n">
-        <v>475.3362068029155</v>
+        <v>421.2493827492253</v>
       </c>
       <c r="M45" t="n">
-        <v>141.4941337116939</v>
+        <v>607.1991974616938</v>
       </c>
       <c r="N45" t="n">
-        <v>471.2000215638512</v>
+        <v>639.135623529244</v>
       </c>
       <c r="O45" t="n">
         <v>517.5976865620062</v>
@@ -38116,7 +38116,7 @@
         <v>398.242959848362</v>
       </c>
       <c r="Q45" t="n">
-        <v>212.9848020488506</v>
+        <v>2.907514313001542</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
